--- a/Assets/moonkanghyuck/PandemitText.xlsx
+++ b/Assets/moonkanghyuck/PandemitText.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="도움말" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>StringNumber</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,10 +35,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Talk2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sigh(1000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -47,6 +44,26 @@
   </si>
   <si>
     <t>테스트용 표지판 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringNumber가 0일 때 까지 데이터를 받아들이는 형식임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,는 다음 텍스트로 나눠짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표지판류는 1000번대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람과의 대화는 2000~4000번대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템류는 5000번대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +415,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="68.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -410,39 +471,36 @@
     <col min="2" max="14" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
